--- a/Google/Certificado profesional de Análisis de datos de Google/1. Foundations. Data, Data, Everywhere/Semana 4/Mi primer archivo (dataset).xlsx
+++ b/Google/Certificado profesional de Análisis de datos de Google/1. Foundations. Data, Data, Everywhere/Semana 4/Mi primer archivo (dataset).xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>First Name</t>
   </si>
@@ -42,61 +45,6 @@
   </si>
   <si>
     <t>Siblings (numbers)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Las columnas están organizadas verticalmente en una hoja de cálculo y están ordenadas por letra (aquí van los </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>campos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Y las filas están organizadas horizontalmente y ordenadas por número (aquí van los </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>registros</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>). Entonces, cuando habla de una celda específica, le da un nombre combinando la letra de la columna y el número de fila donde se encuentra la celda.</t>
-    </r>
   </si>
   <si>
     <t>Roberto</t>
@@ -134,6 +82,89 @@
       </rPr>
       <t xml:space="preserve"> esta primera tabla, facilmente, sería una entidad de tipo "personas".</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Las columnas están organizadas verticalmente en una hoja de cálculo y están ordenadas por letra (aquí van los </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>campos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">). Y las filas están organizadas horizontalmente y ordenadas por número (aquí van los </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">registros </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">u </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>observaciones</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). Entonces, cuando habla de una celda específica, le da un nombre combinando la letra de la columna y el número de fila donde se encuentra la celda.</t>
+    </r>
+  </si>
+  <si>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>Alvez</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Manu</t>
+  </si>
+  <si>
+    <t>Leiton</t>
+  </si>
+  <si>
+    <t>Pink</t>
   </si>
 </sst>
 </file>
@@ -265,13 +296,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -279,13 +307,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -306,13 +336,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>12699</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -611,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -627,225 +657,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="G2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="A4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G8" s="3" t="s">
+      <c r="A7" s="4"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
     </row>
     <row r="18" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="31" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
     </row>
     <row r="32" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="G32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1">
+    <sortState ref="A2:E3">
+      <sortCondition ref="C1:C3"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="3">
-    <mergeCell ref="G31:L32"/>
-    <mergeCell ref="G2:L6"/>
-    <mergeCell ref="G8:L18"/>
+    <mergeCell ref="G32:L33"/>
+    <mergeCell ref="G9:L19"/>
+    <mergeCell ref="G2:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>